--- a/biology/Botanique/Poncirus_trifoliata/Poncirus_trifoliata.xlsx
+++ b/biology/Botanique/Poncirus_trifoliata/Poncirus_trifoliata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Citronnier épineux ou Oranger trifolié (Poncirus trifoliata) est une espèce d'arbres de la famille des Rutacées originaire de Corée et du Nord de la Chine. Poncirus est de nos jours souvent inclus dans Citrus. Poncirus trifoliata est la seule des deux espèces de Poncirus à être véritablement connue et cultivée en Europe (la seconde espèce étant le Poncirus polyandre, Poncirus polyandra, syn. Citrus polytrifolia, originaire du Xian de Fumin).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une hauteur de 4 à 8 mètres, cet arbre possède des feuilles trifoliées caduques et une tige très épineuse.
-Il produit un petit fruit jaune orangé appelé « poncire », (nom du cédrat, de pomum cereum, « pomme de cire » selon Gilles Ménage, de pomum assyrium, « pomme d'Assyrie », ou bien de pomum citreum, nom donné au cédrat par Pline l'Ancien[1]), appelée aussi « pomme de Médée », (nom faisant encore référence au cédrat).
+Il produit un petit fruit jaune orangé appelé « poncire », (nom du cédrat, de pomum cereum, « pomme de cire » selon Gilles Ménage, de pomum assyrium, « pomme d'Assyrie », ou bien de pomum citreum, nom donné au cédrat par Pline l'Ancien), appelée aussi « pomme de Médée », (nom faisant encore référence au cédrat).
 Celle-ci est de la taille d'une balle de golf, et contrairement aux autres agrumes, présente un duvet sur son écorce.
 Non toxique pour l'homme, le fruit est consommable mais son goût est amer et désagréable. L'écorce, malgré un parfum agréable, présente un amertume intense due à la haute concentration en poncirine.
 </t>
@@ -545,7 +559,9 @@
           <t>Variétés et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe plusieurs variétés dont une seule est répandue :
 Flying Dragon (P. trifoliata var. monstrosa), buisson nain dont les branches sont très tortueuses et les feuilles très petites. Il est moins rustique que l'espèce type, mais particulièrement épineux et donc adapté à l'utilisation en haie défensive.
@@ -583,10 +599,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Déplaisants à l'état cru (à cause de leur amertume, causée en partie par la poncirine), ses fruits peuvent être accommodés et préparés sous diverses formes après cuisson. On en fait entre autres une sorte de vin et des confitures, notamment en Chine. Séchés et réduits en poudre, ils sont utilisés comme condiment.
-Résistant à des températures de -15 °C à -20 °C et résistant à la tristeza[réf. souhaitée], c'est le seul agrume rustique dans l'ensemble des zones à climat tempéré. Il est souvent utilisé en porte-greffe pour améliorer la résistance au froid, aux sols alcalins, et aux maladies des variétés commerciales d'agrumes[2].
+Résistant à des températures de -15 °C à -20 °C et résistant à la tristeza[réf. souhaitée], c'est le seul agrume rustique dans l'ensemble des zones à climat tempéré. Il est souvent utilisé en porte-greffe pour améliorer la résistance au froid, aux sols alcalins, et aux maladies des variétés commerciales d'agrumes.
 Il est également utilisé dans le jardin d'ornement où il est apprécié comme sujet isolé, original du fait de ses longues épines ligneuses, de la forme de ses feuilles et de ses fruits à mi-chemin entre citron et orange.
 Il s'intègre parfaitement au sein de haies décoratives et/ou défensives.
 Le pollen des fleurs de poncirus est utile lorsqu'on cherche à produire des clones d'agrumes (oranger, mandarinier, citronnier...). Le caractère trifolié des feuilles étant un gène dominant, le pollen de poncirus est utilisé pour féconder manuellement d'autres variétés d'agrumes, ainsi, en cas de germination de pépins polyembryonés, il est possible de repérer facilement parmi les semis lesquels sont les clones de l'arbre-mère; ce seront ceux dont les feuilles ne possèdent pas 3 lobes, les hybrides ayant les feuilles trifoliées.
@@ -622,7 +640,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiplication par semis ou par boutures semi-ligneuses (avec hormone de bouturage et de préférence chaleur de fond).
 			Poncires; fruits et pépins
